--- a/protivCenter/protiv/2.5.1.xlsx
+++ b/protivCenter/protiv/2.5.1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\avia\protivCenter\protiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7C8887-559B-4FDE-8BD6-095415719C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E049E-C6B3-41AE-A2BE-A89D04E2DF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6D944A4D-5591-4D86-8267-4ADA712CE826}"/>
   </bookViews>
   <sheets>
-    <sheet name="2.5" sheetId="1" r:id="rId1"/>
+    <sheet name="2.2" sheetId="3" r:id="rId1"/>
+    <sheet name="2.5" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <r>
       <t xml:space="preserve">(2500) </t>
@@ -203,12 +204,240 @@
   <si>
     <t>в том числе:</t>
   </si>
+  <si>
+    <r>
+      <t>(2200)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2.2. Эпизоотологическое обследование природных очагов чумы</t>
+    </r>
+  </si>
+  <si>
+    <t>Период</t>
+  </si>
+  <si>
+    <t>Обследована площадь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Выставлено орудий</t>
+  </si>
+  <si>
+    <t>Осмотрено</t>
+  </si>
+  <si>
+    <t>Исследовано бактериологическим</t>
+  </si>
+  <si>
+    <t>автономного или</t>
+  </si>
+  <si>
+    <t>работ</t>
+  </si>
+  <si>
+    <t>очагов чумы (км²)</t>
+  </si>
+  <si>
+    <t>городских и сельских</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         лова (штук)</t>
+  </si>
+  <si>
+    <t>входов нор</t>
+  </si>
+  <si>
+    <t>(биологическим) методом (экз.)</t>
+  </si>
+  <si>
+    <t>мезоочага чумы</t>
+  </si>
+  <si>
+    <t>(полу-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   физи-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   опера-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">населенных пунктов </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   в поле</t>
+  </si>
+  <si>
+    <t>носителей на</t>
+  </si>
+  <si>
+    <t>носителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кровососущих </t>
+  </si>
+  <si>
+    <t>годие,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ческая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  тивная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">на наличие </t>
+  </si>
+  <si>
+    <t>членистоногих</t>
+  </si>
+  <si>
+    <t>год)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> пунктах</t>
+  </si>
+  <si>
+    <t>наличие экто-</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>в том числе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  носителей</t>
+  </si>
+  <si>
+    <t>паразитов</t>
+  </si>
+  <si>
+    <t>Х</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе: </t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>год</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -263,8 +492,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -480,51 +731,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,25 +761,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,6 +821,92 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -925,13 +1220,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367FC570-46C0-4052-BCDD-B2C0F89DA2AF}">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="44"/>
+      <c r="J3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="60"/>
+      <c r="M3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="61"/>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="57"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>1</v>
+      </c>
+      <c r="B9" s="47">
+        <v>2</v>
+      </c>
+      <c r="C9" s="48">
+        <v>3</v>
+      </c>
+      <c r="D9" s="47">
+        <v>4</v>
+      </c>
+      <c r="E9" s="47">
+        <v>5</v>
+      </c>
+      <c r="F9" s="47">
+        <v>6</v>
+      </c>
+      <c r="G9" s="47">
+        <v>7</v>
+      </c>
+      <c r="H9" s="47">
+        <v>8</v>
+      </c>
+      <c r="I9" s="47">
+        <v>9</v>
+      </c>
+      <c r="J9" s="49">
+        <v>10</v>
+      </c>
+      <c r="K9" s="47">
+        <v>11</v>
+      </c>
+      <c r="L9" s="47">
+        <v>12</v>
+      </c>
+      <c r="M9" s="50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" ref="D10:M10" si="0">SUM(D14,D17,D20,D23,D26,D29,D32,D35,D38,D41,D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" ref="D14:M14" si="1">SUM(D12,D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+      <c r="B16" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" ref="D17:M17" si="2">SUM(D15,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="71"/>
+      <c r="B18" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" ref="D20:M20" si="3">SUM(D18,D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" ref="D23:M23" si="4">SUM(D21,D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" ref="D26:M26" si="5">SUM(D24,D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="25">
+        <f t="shared" ref="D29:M29" si="6">SUM(D27,D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="25">
+        <f t="shared" ref="D32:M32" si="7">SUM(D30,D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="25">
+        <f t="shared" ref="D35:M35" si="8">SUM(D33,D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="71"/>
+      <c r="B36" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="72"/>
+      <c r="B37" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="25">
+        <f t="shared" ref="D38:M38" si="9">SUM(D36,D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="73"/>
+      <c r="B41" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="25">
+        <f t="shared" ref="D41:M41" si="10">SUM(D39,D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="71"/>
+      <c r="B42" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="72"/>
+      <c r="B43" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="25">
+        <f t="shared" ref="D44:M44" si="11">SUM(D42,D43)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="25">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:M4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE4F95-1568-4937-A87D-946C9ADD58B8}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
@@ -978,135 +2561,135 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
       <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="14"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="55"/>
     </row>
     <row r="5" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="68"/>
+      <c r="G5" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="22"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="13"/>
     </row>
     <row r="7" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1115,21 +2698,21 @@
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="31"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="64"/>
       <c r="R7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1141,24 +2724,24 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1173,8 +2756,8 @@
       <c r="L8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>36</v>
       </c>
       <c r="O8" s="4" t="s">
@@ -1186,677 +2769,672 @@
       <c r="Q8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="S8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="12"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="s">
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="Q9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33" t="s">
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33" t="s">
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
     </row>
     <row r="11" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="21">
         <v>1</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="21">
         <v>2</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="21">
         <v>3</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="21">
         <v>4</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="22">
         <v>5</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="22">
         <v>6</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="21">
         <v>7</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="21">
         <v>8</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="21">
         <v>9</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="21">
         <v>10</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="21">
         <v>11</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="21">
         <v>12</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="21">
         <v>13</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="21">
         <v>14</v>
       </c>
-      <c r="O11" s="35">
+      <c r="O11" s="21">
         <v>15</v>
       </c>
-      <c r="P11" s="35">
+      <c r="P11" s="21">
         <v>16</v>
       </c>
-      <c r="Q11" s="35">
+      <c r="Q11" s="21">
         <v>17</v>
       </c>
-      <c r="R11" s="35">
+      <c r="R11" s="21">
         <v>18</v>
       </c>
-      <c r="S11" s="35">
+      <c r="S11" s="21">
         <v>19</v>
       </c>
-      <c r="T11" s="35">
+      <c r="T11" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="25">
         <f t="shared" ref="C12:T12" si="0">SUM(C14:C32)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
     </row>
     <row r="14" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
     </row>
     <row r="15" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
     </row>
     <row r="16" spans="1:22" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
     </row>
     <row r="18" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
     </row>
     <row r="19" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
     </row>
     <row r="20" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
     </row>
     <row r="21" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
     </row>
     <row r="22" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
     </row>
     <row r="23" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
     </row>
     <row r="24" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
     </row>
     <row r="25" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
     </row>
     <row r="26" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
     </row>
     <row r="27" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
     </row>
     <row r="28" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
     </row>
     <row r="29" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
     </row>
     <row r="30" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
     </row>
     <row r="31" spans="1:20" ht="14.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="54"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="54"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="I7:L7"/>
     <mergeCell ref="N7:Q7"/>
     <mergeCell ref="C3:D3"/>
@@ -1865,6 +3443,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
